--- a/moliere-personnage/done/synthese_moliere-personnage.xlsx
+++ b/moliere-personnage/done/synthese_moliere-personnage.xlsx
@@ -1070,12 +1070,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1093,86 +1094,10 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1180,9 +1105,10 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,74 +1117,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1283,7 +1152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1307,58 +1176,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -1371,149 +1189,72 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="37" builtinId="53" customBuiltin="true"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1528,8 +1269,8 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1540,7 +1281,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="49.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.91"/>
   </cols>

--- a/moliere-personnage/done/synthese_moliere-personnage.xlsx
+++ b/moliere-personnage/done/synthese_moliere-personnage.xlsx
@@ -1180,17 +1180,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1202,11 +1198,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1222,11 +1218,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1237,12 +1229,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1269,11 +1257,11 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.91"/>
@@ -1281,2184 +1269,2184 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="46.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="49.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" customFormat="false" ht="69.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="n">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="n">
         <v>1660</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7" t="n">
+      <c r="H2" s="8"/>
+      <c r="I2" s="6" t="n">
         <v>1660</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="n">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="n">
         <v>1674</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7" t="n">
+      <c r="H3" s="8"/>
+      <c r="I3" s="6" t="n">
         <v>1674</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="n">
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="n">
         <v>1788</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7" t="n">
+      <c r="H4" s="8"/>
+      <c r="I4" s="6" t="n">
         <v>1788</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="n">
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="n">
         <v>1788</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7" t="n">
+      <c r="H5" s="8"/>
+      <c r="I5" s="6" t="n">
         <v>1788</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" customFormat="false" ht="69.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="n">
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="n">
         <v>1795</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7" t="n">
+      <c r="H6" s="8"/>
+      <c r="I6" s="6" t="n">
         <v>1795</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="12" t="n">
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10" t="n">
         <v>1776</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12" t="n">
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="n">
         <v>1776</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="14" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="7" t="n">
         <v>1825</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="6" t="n">
         <v>1787</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="7" t="n">
         <v>1899</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12" t="n">
+      <c r="H9" s="8"/>
+      <c r="I9" s="10" t="n">
         <v>1899</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="12" t="n">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10" t="n">
         <v>1670</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12" t="n">
+      <c r="H10" s="11"/>
+      <c r="I10" s="10" t="n">
         <v>1670</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+    <row r="11" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="12" t="n">
+      <c r="G11" s="10" t="n">
         <v>1770</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="12" t="n">
+      <c r="H11" s="8"/>
+      <c r="I11" s="10" t="n">
         <v>1770</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+    <row r="12" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12" t="n">
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10" t="n">
         <v>1782</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12" t="n">
+      <c r="H12" s="11"/>
+      <c r="I12" s="10" t="n">
         <v>1782</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+    <row r="13" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12" t="n">
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10" t="n">
         <v>1787</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12" t="n">
+      <c r="H13" s="11"/>
+      <c r="I13" s="10" t="n">
         <v>1787</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+    <row r="14" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12" t="n">
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10" t="n">
         <v>1798</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12" t="n">
+      <c r="H14" s="11"/>
+      <c r="I14" s="10" t="n">
         <v>1798</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+    <row r="15" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12" t="n">
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10" t="n">
         <v>1802</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12" t="n">
+      <c r="H15" s="11"/>
+      <c r="I15" s="10" t="n">
         <v>1802</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="9"/>
+      <c r="K15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+    <row r="16" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="6" t="n">
         <v>1804</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7" t="n">
+      <c r="H16" s="8"/>
+      <c r="I16" s="6" t="n">
         <v>1804</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+    <row r="17" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="7" t="n">
         <v>1808</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7" t="n">
+      <c r="H17" s="8"/>
+      <c r="I17" s="6" t="n">
         <v>1808</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+    <row r="18" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12" t="n">
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10" t="n">
         <v>1821</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="12" t="n">
+      <c r="H18" s="11"/>
+      <c r="I18" s="10" t="n">
         <v>1821</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+    <row r="19" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="12" t="n">
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="10" t="n">
         <v>1825</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12" t="n">
+      <c r="H19" s="11"/>
+      <c r="I19" s="10" t="n">
         <v>1825</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+    <row r="20" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="12" t="n">
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="10" t="n">
         <v>1847</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12" t="n">
+      <c r="H20" s="11"/>
+      <c r="I20" s="10" t="n">
         <v>1847</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="9"/>
+      <c r="K20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+    <row r="21" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="7" t="n">
         <v>1848</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12" t="n">
+      <c r="H21" s="8"/>
+      <c r="I21" s="10" t="n">
         <v>1848</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+    <row r="22" customFormat="false" ht="275.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="7" t="n">
         <v>1876</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="10" t="n">
         <v>1851</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+    <row r="23" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="7" t="n">
         <v>1855</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="6" t="n">
         <v>1855</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+    <row r="24" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="7" t="n">
         <v>1856</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12" t="n">
+      <c r="H24" s="8"/>
+      <c r="I24" s="10" t="n">
         <v>1855</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+    <row r="25" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="12" t="n">
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="10" t="n">
         <v>1860</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="12" t="n">
+      <c r="H25" s="11"/>
+      <c r="I25" s="10" t="n">
         <v>1860</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11" t="s">
+      <c r="J25" s="9"/>
+      <c r="K25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+    <row r="26" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="7" t="n">
         <v>1864</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12" t="n">
+      <c r="H26" s="8"/>
+      <c r="I26" s="10" t="n">
         <v>1864</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+    <row r="27" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="7" t="n">
         <v>1866</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12" t="n">
+      <c r="H27" s="8"/>
+      <c r="I27" s="10" t="n">
         <v>1866</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+    <row r="28" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="7" t="n">
         <v>1867</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12" t="n">
+      <c r="H28" s="8"/>
+      <c r="I28" s="10" t="n">
         <v>1867</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+    <row r="29" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="12" t="n">
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="10" t="n">
         <v>1887</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12" t="n">
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="n">
         <v>1874</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11" t="s">
+      <c r="J29" s="9"/>
+      <c r="K29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+    <row r="30" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="12" t="n">
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="10" t="n">
         <v>1887</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12" t="n">
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="n">
         <v>1875</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11" t="s">
+      <c r="J30" s="9"/>
+      <c r="K30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+    <row r="31" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="12" t="n">
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="10" t="n">
         <v>1887</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="12" t="n">
+      <c r="H31" s="11"/>
+      <c r="I31" s="10" t="n">
         <v>1877</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+    <row r="32" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="7" t="n">
         <v>1882</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="12" t="n">
+      <c r="H32" s="8"/>
+      <c r="I32" s="10" t="n">
         <v>1879</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+    <row r="33" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="12" t="n">
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="10" t="n">
         <v>1887</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="12" t="n">
+      <c r="H33" s="11"/>
+      <c r="I33" s="10" t="n">
         <v>1881</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="11" t="s">
+      <c r="J33" s="9"/>
+      <c r="K33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+    <row r="34" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="12" t="n">
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="10" t="n">
         <v>1887</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="12" t="n">
+      <c r="H34" s="11"/>
+      <c r="I34" s="10" t="n">
         <v>1886</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="11" t="s">
+      <c r="J34" s="9"/>
+      <c r="K34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    <row r="35" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="12" t="n">
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="10" t="n">
         <v>1897</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="12" t="n">
+      <c r="H35" s="11"/>
+      <c r="I35" s="10" t="n">
         <v>1897</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="11" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+    <row r="36" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="7"/>
+      <c r="E36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="7" t="n">
         <v>1900</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="12" t="n">
+      <c r="H36" s="8"/>
+      <c r="I36" s="10" t="n">
         <v>1900</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L36" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    <row r="37" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="7" t="n">
         <v>1903</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I37" s="12" t="n">
+      <c r="I37" s="10" t="n">
         <v>1903</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+    <row r="38" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="12" t="n">
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="10" t="n">
         <v>2017</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="12" t="n">
+      <c r="H38" s="11"/>
+      <c r="I38" s="10" t="n">
         <v>2017</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11" t="s">
+      <c r="J38" s="9"/>
+      <c r="K38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L38" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="7"/>
+      <c r="E39" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="12" t="n">
+      <c r="G39" s="10" t="n">
         <v>1694</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12" t="n">
+      <c r="H39" s="8"/>
+      <c r="I39" s="10" t="n">
         <v>1694</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="12" t="n">
+      <c r="G40" s="10" t="n">
         <v>1777</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="12" t="n">
+      <c r="H40" s="8"/>
+      <c r="I40" s="10" t="n">
         <v>1777</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+    <row r="41" customFormat="false" ht="69.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="6" t="n">
         <v>1801</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7" t="n">
+      <c r="H41" s="8"/>
+      <c r="I41" s="6" t="n">
         <v>1801</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+    <row r="42" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="7"/>
+      <c r="E42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="7" t="n">
+      <c r="G42" s="6" t="n">
         <v>1807</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="7" t="n">
+      <c r="H42" s="8"/>
+      <c r="I42" s="6" t="n">
         <v>1806</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="K42" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+    <row r="43" customFormat="false" ht="92.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G43" s="12" t="n">
+      <c r="G43" s="10" t="n">
         <v>1801</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12" t="n">
+      <c r="H43" s="8"/>
+      <c r="I43" s="10" t="n">
         <v>1751</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K43" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+    <row r="44" customFormat="false" ht="69.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G44" s="7" t="n">
+      <c r="G44" s="6" t="n">
         <v>1866</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7" t="n">
+      <c r="H44" s="8"/>
+      <c r="I44" s="6" t="n">
         <v>1851</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K44" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+    <row r="45" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G45" s="8" t="n">
+      <c r="G45" s="7" t="n">
         <v>1863</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="7" t="n">
+      <c r="H45" s="8"/>
+      <c r="I45" s="6" t="n">
         <v>1863</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K45" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+    <row r="46" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G46" s="7" t="n">
+      <c r="G46" s="6" t="n">
         <v>1868</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="7" t="n">
+      <c r="H46" s="8"/>
+      <c r="I46" s="6" t="n">
         <v>1868</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="K46" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+    <row r="47" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G47" s="8" t="n">
+      <c r="G47" s="7" t="n">
         <v>1912</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="10" t="n">
         <v>1912</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+    <row r="48" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G48" s="8" t="n">
+      <c r="G48" s="7" t="n">
         <v>1815</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12" t="n">
+      <c r="H48" s="8"/>
+      <c r="I48" s="10" t="n">
         <v>1815</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K48" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+    <row r="49" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G49" s="8" t="n">
+      <c r="G49" s="7" t="n">
         <v>1816</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="7" t="n">
+      <c r="H49" s="8"/>
+      <c r="I49" s="6" t="n">
         <v>1816</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G50" s="8" t="n">
+      <c r="G50" s="7" t="n">
         <v>1822</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="7" t="n">
+      <c r="H50" s="8"/>
+      <c r="I50" s="6" t="n">
         <v>1822</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+    <row r="51" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G51" s="8" t="n">
+      <c r="G51" s="7" t="n">
         <v>1825</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12" t="n">
+      <c r="H51" s="8"/>
+      <c r="I51" s="10" t="n">
         <v>1825</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+    <row r="52" customFormat="false" ht="69.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G52" s="8" t="n">
+      <c r="G52" s="7" t="n">
         <v>1828</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="7" t="n">
+      <c r="H52" s="8"/>
+      <c r="I52" s="6" t="n">
         <v>1828</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+    <row r="53" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G53" s="8" t="n">
+      <c r="G53" s="7" t="n">
         <v>1828</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="7" t="n">
+      <c r="H53" s="8"/>
+      <c r="I53" s="6" t="n">
         <v>1828</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+    <row r="54" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="6"/>
+      <c r="E54" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G54" s="8" t="n">
+      <c r="G54" s="7" t="n">
         <v>1829</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12" t="n">
+      <c r="H54" s="8"/>
+      <c r="I54" s="10" t="n">
         <v>1829</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+    <row r="55" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="G55" s="8" t="n">
+      <c r="G55" s="7" t="n">
         <v>1830</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12" t="n">
+      <c r="H55" s="8"/>
+      <c r="I55" s="10" t="n">
         <v>1830</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="7"/>
+      <c r="E56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="G56" s="8" t="n">
+      <c r="G56" s="7" t="n">
         <v>1832</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="7" t="n">
+      <c r="H56" s="8"/>
+      <c r="I56" s="6" t="n">
         <v>1832</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+    <row r="57" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="G57" s="8" t="n">
+      <c r="G57" s="7" t="n">
         <v>1838</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12" t="n">
+      <c r="H57" s="8"/>
+      <c r="I57" s="10" t="n">
         <v>1838</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="7" t="s">
+      <c r="D58" s="7"/>
+      <c r="E58" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G58" s="8" t="n">
+      <c r="G58" s="7" t="n">
         <v>1839</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="12" t="n">
+      <c r="H58" s="8"/>
+      <c r="I58" s="10" t="n">
         <v>1839</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G59" s="8" t="n">
+      <c r="G59" s="7" t="n">
         <v>1843</v>
       </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="7" t="n">
+      <c r="H59" s="8"/>
+      <c r="I59" s="6" t="n">
         <v>1843</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G60" s="8" t="n">
+      <c r="G60" s="7" t="n">
         <v>1855</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="12" t="n">
+      <c r="H60" s="8"/>
+      <c r="I60" s="10" t="n">
         <v>1855</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+    <row r="61" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G61" s="8" t="n">
+      <c r="G61" s="7" t="n">
         <v>1863</v>
       </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="12" t="n">
+      <c r="H61" s="8"/>
+      <c r="I61" s="10" t="n">
         <v>1863</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+    <row r="62" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="8" t="n">
+      <c r="G62" s="7" t="n">
         <v>1865</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="12" t="n">
+      <c r="H62" s="8"/>
+      <c r="I62" s="10" t="n">
         <v>1865</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L62" s="11" t="s">
+      <c r="L62" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+    <row r="63" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G63" s="8" t="n">
+      <c r="G63" s="7" t="n">
         <v>1872</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="7" t="n">
+      <c r="H63" s="8"/>
+      <c r="I63" s="6" t="n">
         <v>1869</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="K63" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+    <row r="64" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G64" s="8" t="n">
+      <c r="G64" s="7" t="n">
         <v>1873</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="12" t="n">
+      <c r="H64" s="8"/>
+      <c r="I64" s="10" t="n">
         <v>1873</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+    <row r="65" customFormat="false" ht="69.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G65" s="8" t="n">
+      <c r="G65" s="7" t="n">
         <v>1873</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="12" t="n">
+      <c r="H65" s="8"/>
+      <c r="I65" s="10" t="n">
         <v>1873</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+    <row r="66" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="7"/>
+      <c r="E66" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G66" s="8" t="n">
+      <c r="G66" s="7" t="n">
         <v>1879</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="12" t="n">
+      <c r="H66" s="8"/>
+      <c r="I66" s="10" t="n">
         <v>1879</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="K66" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+    <row r="67" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="G67" s="8" t="n">
+      <c r="G67" s="7" t="n">
         <v>1879</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="12" t="n">
+      <c r="H67" s="8"/>
+      <c r="I67" s="10" t="n">
         <v>1879</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="K67" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
